--- a/data/VNR.xlsx
+++ b/data/VNR.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>VNR</t>

--- a/data/VNR.xlsx
+++ b/data/VNR.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>VNR</t>

--- a/data/VNR.xlsx
+++ b/data/VNR.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>VNR</t>

--- a/data/VNR.xlsx
+++ b/data/VNR.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="461">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>VNR</t>
@@ -40281,7 +40281,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AR300"/>
+  <dimension ref="A1:AS300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -40333,6 +40333,7 @@
     <col min="42" max="42" width="18.5390625" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="15.625" customWidth="true" bestFit="true"/>
     <col min="44" max="44" width="18.5390625" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="18.5390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -40508,6 +40509,9 @@
       <c r="AR11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AS11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
@@ -40639,6 +40643,9 @@
       <c r="AR12" s="25" t="n">
         <v>1.8480402324E11</v>
       </c>
+      <c r="AS12" s="25" t="n">
+        <v>9.8975680622E10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
@@ -40770,6 +40777,9 @@
       <c r="AR13" s="25" t="n">
         <v>1.373274823E9</v>
       </c>
+      <c r="AS13" s="25" t="n">
+        <v>1.51954583E9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
@@ -40901,6 +40911,9 @@
       <c r="AR14" s="25" t="n">
         <v>7.895659376E9</v>
       </c>
+      <c r="AS14" s="25" t="n">
+        <v>9.7456134792E10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
@@ -41032,6 +41045,9 @@
       <c r="AR15" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS15" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
@@ -41163,6 +41179,9 @@
       <c r="AR16" s="25" t="n">
         <v>1.75535089041E11</v>
       </c>
+      <c r="AS16" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="28" t="s">
@@ -41294,6 +41313,9 @@
       <c r="AR17" s="25" t="n">
         <v>3.215282747589E12</v>
       </c>
+      <c r="AS17" s="25" t="n">
+        <v>2.914190161384E12</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="26" t="s">
@@ -41425,6 +41447,9 @@
       <c r="AR18" s="25" t="n">
         <v>1.73907022E8</v>
       </c>
+      <c r="AS18" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
@@ -41556,6 +41581,9 @@
       <c r="AR19" s="25" t="n">
         <v>3.215282747589E12</v>
       </c>
+      <c r="AS19" s="25" t="n">
+        <v>2.914190161384E12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
@@ -41687,6 +41715,9 @@
       <c r="AR20" s="25" t="n">
         <v>3.215282747589E12</v>
       </c>
+      <c r="AS20" s="25" t="n">
+        <v>2.914190161384E12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
@@ -41818,6 +41849,9 @@
       <c r="AR21" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS21" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
@@ -41949,6 +41983,9 @@
       <c r="AR22" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS22" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
@@ -42080,6 +42117,9 @@
       <c r="AR23" s="25" t="n">
         <v>-1.73907022E8</v>
       </c>
+      <c r="AS23" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
@@ -42211,6 +42251,9 @@
       <c r="AR24" s="25" t="n">
         <v>8.36641733068E11</v>
       </c>
+      <c r="AS24" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
@@ -42342,6 +42385,9 @@
       <c r="AR25" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS25" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
@@ -42473,6 +42519,9 @@
       <c r="AR26" s="25" t="n">
         <v>4.90819008678E11</v>
       </c>
+      <c r="AS26" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
@@ -42604,6 +42653,9 @@
       <c r="AR27" s="25" t="n">
         <v>3.08238890267E11</v>
       </c>
+      <c r="AS27" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
@@ -42735,6 +42787,9 @@
       <c r="AR28" s="25" t="n">
         <v>3.7583834123E10</v>
       </c>
+      <c r="AS28" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
@@ -42866,6 +42921,9 @@
       <c r="AR29" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS29" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
@@ -42997,6 +43055,9 @@
       <c r="AR30" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS30" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
@@ -43128,6 +43189,9 @@
       <c r="AR31" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS31" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
@@ -43259,6 +43323,9 @@
       <c r="AR32" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS32" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
@@ -43390,6 +43457,9 @@
       <c r="AR33" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS33" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
@@ -43521,6 +43591,9 @@
       <c r="AR34" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS34" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
@@ -43652,6 +43725,9 @@
       <c r="AR35" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS35" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
@@ -43783,6 +43859,9 @@
       <c r="AR36" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS36" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
@@ -43914,6 +43993,9 @@
       <c r="AR37" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS37" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="28" t="s">
@@ -44045,6 +44127,9 @@
       <c r="AR38" s="25" t="n">
         <v>2.55055545993E11</v>
       </c>
+      <c r="AS38" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="26" t="s">
@@ -44176,6 +44261,9 @@
       <c r="AR39" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS39" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
@@ -44307,6 +44395,9 @@
       <c r="AR40" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS40" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
@@ -44438,6 +44529,9 @@
       <c r="AR41" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS41" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
@@ -44569,6 +44663,9 @@
       <c r="AR42" s="25" t="n">
         <v>2.55055545993E11</v>
       </c>
+      <c r="AS42" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="28" t="s">
@@ -44700,6 +44797,9 @@
       <c r="AR43" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS43" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="26" t="s">
@@ -44831,6 +44931,9 @@
       <c r="AR44" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS44" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
@@ -44962,6 +45065,9 @@
       <c r="AR45" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS45" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
@@ -45093,6 +45199,9 @@
       <c r="AR46" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS46" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
@@ -45224,6 +45333,9 @@
       <c r="AR47" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS47" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
@@ -45355,6 +45467,9 @@
       <c r="AR48" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS48" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="26" t="s">
@@ -45486,6 +45601,9 @@
       <c r="AR49" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS49" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
@@ -45617,6 +45735,9 @@
       <c r="AR50" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS50" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
@@ -45748,6 +45869,9 @@
       <c r="AR51" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS51" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
@@ -45879,6 +46003,9 @@
       <c r="AR52" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS52" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
@@ -46010,6 +46137,9 @@
       <c r="AR53" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS53" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
@@ -46141,6 +46271,9 @@
       <c r="AR54" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS54" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
@@ -46272,6 +46405,9 @@
       <c r="AR55" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS55" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
@@ -46403,6 +46539,9 @@
       <c r="AR56" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS56" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="26" t="s">
@@ -46534,6 +46673,9 @@
       <c r="AR57" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS57" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="28" t="s">
@@ -46665,6 +46807,9 @@
       <c r="AR58" s="25" t="n">
         <v>3.7272946471E10</v>
       </c>
+      <c r="AS58" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
@@ -46796,6 +46941,9 @@
       <c r="AR59" s="25" t="n">
         <v>3.7228296471E10</v>
       </c>
+      <c r="AS59" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
@@ -46927,6 +47075,9 @@
       <c r="AR60" s="25" t="n">
         <v>4.465E7</v>
       </c>
+      <c r="AS60" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="26" t="s">
@@ -47058,6 +47209,9 @@
       <c r="AR61" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS61" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="28" t="s">
@@ -47189,6 +47343,9 @@
       <c r="AR62" s="25" t="n">
         <v>2.8382879558E10</v>
       </c>
+      <c r="AS62" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
@@ -47320,6 +47477,9 @@
       <c r="AR63" s="25" t="n">
         <v>2.7056868929E10</v>
       </c>
+      <c r="AS63" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
@@ -47451,6 +47611,9 @@
       <c r="AR64" s="25" t="n">
         <v>1.326010629E9</v>
       </c>
+      <c r="AS64" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="26" t="s">
@@ -47582,6 +47745,9 @@
       <c r="AR65" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS65" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="28" t="s">
@@ -47713,6 +47879,9 @@
       <c r="AR66" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS66" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
@@ -47844,6 +48013,9 @@
       <c r="AR67" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS67" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
@@ -47975,6 +48147,9 @@
       <c r="AR68" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS68" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="26" t="s">
@@ -48106,6 +48281,9 @@
       <c r="AR69" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS69" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="28" t="s">
@@ -48237,6 +48415,9 @@
       <c r="AR70" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS70" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
@@ -48368,6 +48549,9 @@
       <c r="AR71" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS71" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
@@ -48499,6 +48683,9 @@
       <c r="AR72" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS72" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="26" t="s">
@@ -48630,6 +48817,9 @@
       <c r="AR73" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS73" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="28" t="s">
@@ -48761,6 +48951,9 @@
       <c r="AR74" s="25" t="n">
         <v>1.6379185933E10</v>
       </c>
+      <c r="AS74" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
@@ -48892,6 +49085,9 @@
       <c r="AR75" s="25" t="n">
         <v>1.6379185933E10</v>
       </c>
+      <c r="AS75" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
@@ -49023,6 +49219,9 @@
       <c r="AR76" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS76" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
@@ -49154,6 +49353,9 @@
       <c r="AR77" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS77" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="28" t="s">
@@ -49285,6 +49487,9 @@
       <c r="AR78" s="25" t="n">
         <v>7.779978096E9</v>
       </c>
+      <c r="AS78" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="26" t="s">
@@ -49416,6 +49621,9 @@
       <c r="AR79" s="25" t="n">
         <v>6.21648576E9</v>
       </c>
+      <c r="AS79" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
@@ -49547,6 +49755,9 @@
       <c r="AR80" s="25" t="n">
         <v>1.563492336E9</v>
       </c>
+      <c r="AS80" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
@@ -49678,6 +49889,9 @@
       <c r="AR81" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS81" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
@@ -49809,6 +50023,9 @@
       <c r="AR82" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS82" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
@@ -49940,6 +50157,9 @@
       <c r="AR83" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS83" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
@@ -50071,6 +50291,9 @@
       <c r="AR84" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS84" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
@@ -50202,6 +50425,9 @@
       <c r="AR85" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS85" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="26" t="s">
@@ -50333,6 +50559,9 @@
       <c r="AR86" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS86" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
@@ -50464,6 +50693,9 @@
       <c r="AR87" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS87" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
@@ -50595,6 +50827,9 @@
       <c r="AR88" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS88" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="28" t="s">
@@ -50726,6 +50961,9 @@
       <c r="AR89" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS89" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="26" t="s">
@@ -50857,6 +51095,9 @@
       <c r="AR90" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS90" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
@@ -50988,6 +51229,9 @@
       <c r="AR91" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS91" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="28" t="s">
@@ -51119,6 +51363,9 @@
       <c r="AR92" s="25" t="n">
         <v>9.3339230033E11</v>
       </c>
+      <c r="AS92" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
@@ -51250,6 +51497,9 @@
       <c r="AR93" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS93" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
@@ -51381,6 +51631,9 @@
       <c r="AR94" s="25" t="n">
         <v>4.181401579E11</v>
       </c>
+      <c r="AS94" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
@@ -51512,6 +51765,9 @@
       <c r="AR95" s="25" t="n">
         <v>5.14126569671E11</v>
       </c>
+      <c r="AS95" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
@@ -51643,6 +51899,9 @@
       <c r="AR96" s="25" t="n">
         <v>1.125572759E9</v>
       </c>
+      <c r="AS96" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="28" t="s">
@@ -51774,6 +52033,9 @@
       <c r="AR97" s="25" t="n">
         <v>1.8687468328E10</v>
       </c>
+      <c r="AS97" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
@@ -51905,6 +52167,9 @@
       <c r="AR98" s="25" t="n">
         <v>2.4378877E7</v>
       </c>
+      <c r="AS98" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
@@ -52036,6 +52301,9 @@
       <c r="AR99" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS99" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="26" t="s">
@@ -52167,6 +52435,9 @@
       <c r="AR100" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS100" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
@@ -52298,6 +52569,9 @@
       <c r="AR101" s="25" t="n">
         <v>1.779891864E10</v>
       </c>
+      <c r="AS101" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
@@ -52429,6 +52703,9 @@
       <c r="AR102" s="25" t="n">
         <v>6.5286316E8</v>
       </c>
+      <c r="AS102" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
@@ -52560,6 +52837,9 @@
       <c r="AR103" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS103" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
@@ -52691,6 +52971,9 @@
       <c r="AR104" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS104" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="26" t="s">
@@ -52822,6 +53105,9 @@
       <c r="AR105" s="25" t="n">
         <v>2.11307651E8</v>
       </c>
+      <c r="AS105" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
@@ -52953,6 +53239,9 @@
       <c r="AR106" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS106" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="28" t="s">
@@ -53084,6 +53373,9 @@
       <c r="AR107" s="25" t="n">
         <v>2.61596021912E11</v>
       </c>
+      <c r="AS107" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
@@ -53215,6 +53507,9 @@
       <c r="AR108" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS108" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
@@ -53346,6 +53641,9 @@
       <c r="AR109" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS109" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
@@ -53477,6 +53775,9 @@
       <c r="AR110" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS110" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
@@ -53608,6 +53909,9 @@
       <c r="AR111" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS111" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
@@ -53739,6 +54043,9 @@
       <c r="AR112" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS112" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
@@ -53870,6 +54177,9 @@
       <c r="AR113" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS113" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
@@ -54001,6 +54311,9 @@
       <c r="AR114" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS114" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="26" t="s">
@@ -54132,6 +54445,9 @@
       <c r="AR115" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS115" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
@@ -54263,6 +54579,9 @@
       <c r="AR116" s="25" t="n">
         <v>2.61596021912E11</v>
       </c>
+      <c r="AS116" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
@@ -54394,6 +54713,9 @@
       <c r="AR117" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS117" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
@@ -54525,6 +54847,9 @@
       <c r="AR118" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS118" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
@@ -54656,6 +54981,9 @@
       <c r="AR119" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS119" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
@@ -54787,6 +55115,9 @@
       <c r="AR120" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS120" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="26" t="s">
@@ -54918,6 +55249,9 @@
       <c r="AR121" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS121" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
@@ -55049,6 +55383,9 @@
       <c r="AR122" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS122" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
@@ -55180,6 +55517,9 @@
       <c r="AR123" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS123" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="26" t="s">
@@ -55311,6 +55651,9 @@
       <c r="AR124" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS124" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
@@ -55442,6 +55785,9 @@
       <c r="AR125" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS125" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
@@ -55573,6 +55919,9 @@
       <c r="AR126" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS126" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
@@ -55704,6 +56053,9 @@
       <c r="AR127" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS127" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="26" t="s">
@@ -55835,6 +56187,9 @@
       <c r="AR128" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS128" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
@@ -55966,6 +56321,9 @@
       <c r="AR129" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS129" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
@@ -56097,6 +56455,9 @@
       <c r="AR130" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS130" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
@@ -56228,6 +56589,9 @@
       <c r="AR131" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS131" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
@@ -56359,6 +56723,9 @@
       <c r="AR132" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS132" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
@@ -56490,6 +56857,9 @@
       <c r="AR133" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS133" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
@@ -56621,6 +56991,9 @@
       <c r="AR134" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS134" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="26" t="s">
@@ -56752,6 +57125,9 @@
       <c r="AR135" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS135" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
@@ -56883,6 +57259,9 @@
       <c r="AR136" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS136" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
@@ -57014,6 +57393,9 @@
       <c r="AR137" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS137" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
@@ -57145,6 +57527,9 @@
       <c r="AR138" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS138" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
@@ -57276,6 +57661,9 @@
       <c r="AR139" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS139" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
@@ -57407,6 +57795,9 @@
       <c r="AR140" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS140" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
@@ -57538,6 +57929,9 @@
       <c r="AR141" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS141" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
@@ -57669,6 +58063,9 @@
       <c r="AR142" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS142" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
@@ -57800,6 +58197,9 @@
       <c r="AR143" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS143" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="26" t="s">
@@ -57931,6 +58331,9 @@
       <c r="AR144" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS144" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
@@ -58062,6 +58465,9 @@
       <c r="AR145" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS145" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
@@ -58193,6 +58599,9 @@
       <c r="AR146" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS146" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
@@ -58324,6 +58733,9 @@
       <c r="AR147" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS147" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
@@ -58455,6 +58867,9 @@
       <c r="AR148" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
@@ -58586,6 +59001,9 @@
       <c r="AR149" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS149" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
@@ -58717,6 +59135,9 @@
       <c r="AR150" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS150" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
@@ -58848,6 +59269,9 @@
       <c r="AR151" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS151" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
@@ -58979,6 +59403,9 @@
       <c r="AR152" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS152" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
@@ -59110,6 +59537,9 @@
       <c r="AR153" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS153" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="26" t="s">
@@ -59241,6 +59671,9 @@
       <c r="AR154" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS154" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
@@ -59372,6 +59805,9 @@
       <c r="AR155" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS155" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
@@ -59503,6 +59939,9 @@
       <c r="AR156" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS156" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
@@ -59634,6 +60073,9 @@
       <c r="AR157" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
@@ -59765,6 +60207,9 @@
       <c r="AR158" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS158" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
@@ -59896,6 +60341,9 @@
       <c r="AR159" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS159" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
@@ -60027,6 +60475,9 @@
       <c r="AR160" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS160" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="28" t="s">
@@ -60158,6 +60609,9 @@
       <c r="AR161" s="25" t="n">
         <v>1.82391455E12</v>
       </c>
+      <c r="AS161" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
@@ -60289,6 +60743,9 @@
       <c r="AR162" s="25" t="n">
         <v>7.3618747E11</v>
       </c>
+      <c r="AS162" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="26" t="s">
@@ -60420,6 +60877,9 @@
       <c r="AR163" s="25" t="n">
         <v>1.08772708E12</v>
       </c>
+      <c r="AS163" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="28" t="s">
@@ -60551,6 +61011,9 @@
       <c r="AR164" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS164" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
@@ -60682,6 +61145,9 @@
       <c r="AR165" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS165" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
@@ -60813,6 +61279,9 @@
       <c r="AR166" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS166" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
@@ -60944,6 +61413,9 @@
       <c r="AR167" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS167" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
@@ -61075,6 +61547,9 @@
       <c r="AR168" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS168" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="26" t="s">
@@ -61206,6 +61681,9 @@
       <c r="AR169" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS169" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="26" t="s">
@@ -61337,6 +61815,9 @@
       <c r="AR170" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS170" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="26" t="s">
@@ -61468,6 +61949,9 @@
       <c r="AR171" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS171" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="26" t="s">
@@ -61599,6 +62083,9 @@
       <c r="AR172" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS172" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="26" t="s">
@@ -61730,6 +62217,9 @@
       <c r="AR173" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS173" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="26" t="s">
@@ -61861,6 +62351,9 @@
       <c r="AR174" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS174" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="26" t="s">
@@ -61992,6 +62485,9 @@
       <c r="AR175" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS175" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="26" t="s">
@@ -62123,6 +62619,9 @@
       <c r="AR176" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS176" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="26" t="s">
@@ -62254,6 +62753,9 @@
       <c r="AR177" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS177" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="28" t="s">
@@ -62383,6 +62885,9 @@
         <v>0.0</v>
       </c>
       <c r="AR178" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS178" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -62502,6 +63007,9 @@
       <c r="AR179" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS179" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="26" t="s">
@@ -62633,6 +63141,9 @@
       <c r="AR180" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS180" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="26" t="s">
@@ -62764,6 +63275,9 @@
       <c r="AR181" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS181" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="26" t="s">
@@ -62895,6 +63409,9 @@
       <c r="AR182" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS182" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="26" t="s">
@@ -63026,6 +63543,9 @@
       <c r="AR183" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS183" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="26" t="s">
@@ -63157,6 +63677,9 @@
       <c r="AR184" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS184" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="26" t="s">
@@ -63288,6 +63811,9 @@
       <c r="AR185" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS185" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="26" t="s">
@@ -63419,6 +63945,9 @@
       <c r="AR186" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS186" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="26" t="s">
@@ -63550,6 +64079,9 @@
       <c r="AR187" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS187" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="26" t="s">
@@ -63681,6 +64213,9 @@
       <c r="AR188" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS188" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="26" t="s">
@@ -63812,6 +64347,9 @@
       <c r="AR189" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS189" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="26" t="s">
@@ -63943,6 +64481,9 @@
       <c r="AR190" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS190" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="28" t="s">
@@ -64072,6 +64613,9 @@
         <v>0.0</v>
       </c>
       <c r="AR191" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS191" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -64191,6 +64735,9 @@
       <c r="AR192" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS192" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="26" t="s">
@@ -64322,6 +64869,9 @@
       <c r="AR193" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS193" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="26" t="s">
@@ -64453,6 +65003,9 @@
       <c r="AR194" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS194" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="26" t="s">
@@ -64584,6 +65137,9 @@
       <c r="AR195" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS195" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="26" t="s">
@@ -64715,6 +65271,9 @@
       <c r="AR196" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS196" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="26" t="s">
@@ -64846,6 +65405,9 @@
       <c r="AR197" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS197" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="26" t="s">
@@ -64977,6 +65539,9 @@
       <c r="AR198" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS198" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="26" t="s">
@@ -65108,6 +65673,9 @@
       <c r="AR199" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS199" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="26" t="s">
@@ -65239,6 +65807,9 @@
       <c r="AR200" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS200" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="26" t="s">
@@ -65370,6 +65941,9 @@
       <c r="AR201" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS201" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="26" t="s">
@@ -65501,6 +66075,9 @@
       <c r="AR202" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS202" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="26" t="s">
@@ -65632,6 +66209,9 @@
       <c r="AR203" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS203" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="28" t="s">
@@ -65763,6 +66343,9 @@
       <c r="AR204" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS204" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="26" t="s">
@@ -65894,6 +66477,9 @@
       <c r="AR205" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS205" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="26" t="s">
@@ -66025,6 +66611,9 @@
       <c r="AR206" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS206" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="26" t="s">
@@ -66156,6 +66745,9 @@
       <c r="AR207" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS207" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="26" t="s">
@@ -66287,6 +66879,9 @@
       <c r="AR208" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS208" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="26" t="s">
@@ -66418,6 +67013,9 @@
       <c r="AR209" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS209" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="26" t="s">
@@ -66549,6 +67147,9 @@
       <c r="AR210" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS210" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="26" t="s">
@@ -66680,6 +67281,9 @@
       <c r="AR211" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS211" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="26" t="s">
@@ -66811,6 +67415,9 @@
       <c r="AR212" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS212" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="26" t="s">
@@ -66942,6 +67549,9 @@
       <c r="AR213" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS213" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="26" t="s">
@@ -67073,6 +67683,9 @@
       <c r="AR214" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS214" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="26" t="s">
@@ -67204,6 +67817,9 @@
       <c r="AR215" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS215" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="26" t="s">
@@ -67335,6 +67951,9 @@
       <c r="AR216" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS216" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="26" t="s">
@@ -67466,6 +68085,9 @@
       <c r="AR217" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS217" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="28" t="s">
@@ -67595,6 +68217,9 @@
         <v>0.0</v>
       </c>
       <c r="AR218" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS218" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -67714,6 +68339,9 @@
       <c r="AR219" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS219" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="26" t="s">
@@ -67845,6 +68473,9 @@
       <c r="AR220" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS220" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="26" t="s">
@@ -67976,6 +68607,9 @@
       <c r="AR221" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS221" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="26" t="s">
@@ -68107,6 +68741,9 @@
       <c r="AR222" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS222" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="26" t="s">
@@ -68238,6 +68875,9 @@
       <c r="AR223" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS223" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="26" t="s">
@@ -68369,6 +69009,9 @@
       <c r="AR224" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS224" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="26" t="s">
@@ -68500,6 +69143,9 @@
       <c r="AR225" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS225" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="26" t="s">
@@ -68631,6 +69277,9 @@
       <c r="AR226" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS226" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="26" t="s">
@@ -68762,6 +69411,9 @@
       <c r="AR227" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS227" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="26" t="s">
@@ -68893,6 +69545,9 @@
       <c r="AR228" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS228" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="26" t="s">
@@ -69024,6 +69679,9 @@
       <c r="AR229" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS229" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="26" t="s">
@@ -69155,6 +69813,9 @@
       <c r="AR230" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS230" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="28" t="s">
@@ -69284,6 +69945,9 @@
         <v>0.0</v>
       </c>
       <c r="AR231" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS231" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -69403,6 +70067,9 @@
       <c r="AR232" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS232" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="26" t="s">
@@ -69534,6 +70201,9 @@
       <c r="AR233" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS233" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="26" t="s">
@@ -69665,6 +70335,9 @@
       <c r="AR234" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS234" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="26" t="s">
@@ -69796,6 +70469,9 @@
       <c r="AR235" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS235" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="26" t="s">
@@ -69927,6 +70603,9 @@
       <c r="AR236" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS236" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="26" t="s">
@@ -70058,6 +70737,9 @@
       <c r="AR237" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS237" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="26" t="s">
@@ -70189,6 +70871,9 @@
       <c r="AR238" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS238" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="26" t="s">
@@ -70320,6 +71005,9 @@
       <c r="AR239" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS239" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="26" t="s">
@@ -70451,6 +71139,9 @@
       <c r="AR240" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS240" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="26" t="s">
@@ -70582,6 +71273,9 @@
       <c r="AR241" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS241" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="26" t="s">
@@ -70713,6 +71407,9 @@
       <c r="AR242" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS242" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="26" t="s">
@@ -70844,6 +71541,9 @@
       <c r="AR243" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS243" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="28" t="s">
@@ -70975,6 +71675,9 @@
       <c r="AR244" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS244" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="26" t="s">
@@ -71106,6 +71809,9 @@
       <c r="AR245" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS245" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="26" t="s">
@@ -71237,6 +71943,9 @@
       <c r="AR246" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS246" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="26" t="s">
@@ -71368,6 +72077,9 @@
       <c r="AR247" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS247" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="26" t="s">
@@ -71499,6 +72211,9 @@
       <c r="AR248" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS248" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="26" t="s">
@@ -71630,6 +72345,9 @@
       <c r="AR249" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS249" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="26" t="s">
@@ -71761,6 +72479,9 @@
       <c r="AR250" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS250" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="26" t="s">
@@ -71892,6 +72613,9 @@
       <c r="AR251" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS251" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="26" t="s">
@@ -72023,6 +72747,9 @@
       <c r="AR252" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS252" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="26" t="s">
@@ -72154,6 +72881,9 @@
       <c r="AR253" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS253" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="26" t="s">
@@ -72285,6 +73015,9 @@
       <c r="AR254" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS254" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="26" t="s">
@@ -72416,6 +73149,9 @@
       <c r="AR255" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS255" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="28" t="s">
@@ -72547,6 +73283,9 @@
       <c r="AR256" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS256" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="26" t="s">
@@ -72678,6 +73417,9 @@
       <c r="AR257" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS257" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="26" t="s">
@@ -72809,6 +73551,9 @@
       <c r="AR258" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS258" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="26" t="s">
@@ -72940,6 +73685,9 @@
       <c r="AR259" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS259" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="26" t="s">
@@ -73071,6 +73819,9 @@
       <c r="AR260" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS260" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="26" t="s">
@@ -73202,6 +73953,9 @@
       <c r="AR261" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS261" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="26" t="s">
@@ -73333,6 +74087,9 @@
       <c r="AR262" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS262" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="26" t="s">
@@ -73464,6 +74221,9 @@
       <c r="AR263" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS263" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="26" t="s">
@@ -73595,6 +74355,9 @@
       <c r="AR264" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS264" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="26" t="s">
@@ -73726,6 +74489,9 @@
       <c r="AR265" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS265" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="26" t="s">
@@ -73857,6 +74623,9 @@
       <c r="AR266" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS266" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="26" t="s">
@@ -73988,6 +74757,9 @@
       <c r="AR267" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS267" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="28" t="s">
@@ -74119,6 +74891,9 @@
       <c r="AR268" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS268" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="26" t="s">
@@ -74250,6 +75025,9 @@
       <c r="AR269" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS269" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="26" t="s">
@@ -74381,6 +75159,9 @@
       <c r="AR270" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS270" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="26" t="s">
@@ -74512,6 +75293,9 @@
       <c r="AR271" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS271" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="26" t="s">
@@ -74643,6 +75427,9 @@
       <c r="AR272" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS272" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="26" t="s">
@@ -74774,6 +75561,9 @@
       <c r="AR273" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS273" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="26" t="s">
@@ -74905,6 +75695,9 @@
       <c r="AR274" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS274" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="26" t="s">
@@ -75036,6 +75829,9 @@
       <c r="AR275" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS275" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="26" t="s">
@@ -75167,6 +75963,9 @@
       <c r="AR276" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS276" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="26" t="s">
@@ -75298,6 +76097,9 @@
       <c r="AR277" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS277" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="26" t="s">
@@ -75429,6 +76231,9 @@
       <c r="AR278" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS278" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="26" t="s">
@@ -75560,6 +76365,9 @@
       <c r="AR279" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS279" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="26" t="s">
@@ -75691,6 +76499,9 @@
       <c r="AR280" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS280" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="26" t="s">
@@ -75822,6 +76633,9 @@
       <c r="AR281" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS281" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="28" t="s">
@@ -75953,6 +76767,9 @@
       <c r="AR282" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS282" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="26" t="s">
@@ -76084,6 +76901,9 @@
       <c r="AR283" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS283" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="26" t="s">
@@ -76215,6 +77035,9 @@
       <c r="AR284" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS284" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="26" t="s">
@@ -76346,6 +77169,9 @@
       <c r="AR285" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS285" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="26" t="s">
@@ -76477,6 +77303,9 @@
       <c r="AR286" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS286" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="28" t="s">
@@ -76608,6 +77437,9 @@
       <c r="AR287" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS287" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="26" t="s">
@@ -76739,6 +77571,9 @@
       <c r="AR288" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS288" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="26" t="s">
@@ -76870,6 +77705,9 @@
       <c r="AR289" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS289" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="26" t="s">
@@ -77001,6 +77839,9 @@
       <c r="AR290" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS290" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="26" t="s">
@@ -77132,6 +77973,9 @@
       <c r="AR291" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AS291" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="26" t="s">
@@ -77261,6 +78105,9 @@
         <v>0.0</v>
       </c>
       <c r="AR292" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS292" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -77302,7 +78149,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:AR10"/>
+    <mergeCell ref="K10:AS10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A298" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>
